--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhbertram/Documents/GitHub/TrioSphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B093EB2-A905-0747-9BD3-05F971E9F37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A280261-3C2C-B04F-962A-54FF60BC5430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20980" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="36000" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="273">
   <si>
     <t>id</t>
   </si>
@@ -1424,6 +1424,9 @@
       <t>&gt;</t>
     </r>
   </si>
+  <si>
+    <t>dateAdded</t>
+  </si>
 </sst>
 </file>
 
@@ -1611,7 +1614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1634,7 +1637,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,7 +1667,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1721,7 +1724,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,6 +1747,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1971,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2033,7 +2039,9 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -2087,7 +2095,9 @@
       <c r="M2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="45">
+        <v>45974</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2141,7 +2151,9 @@
       <c r="M3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="45">
+        <v>45974</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2197,7 +2209,9 @@
       <c r="M4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="45">
+        <v>45974</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -2251,7 +2265,9 @@
       <c r="M5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="45">
+        <v>45974</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -2305,7 +2321,9 @@
       <c r="M6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="45">
+        <v>45974</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -2359,7 +2377,9 @@
       <c r="M7" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="45">
+        <v>45974</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -2413,7 +2433,9 @@
       <c r="M8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="45">
+        <v>45974</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -2467,7 +2489,9 @@
       <c r="M9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="45">
+        <v>45974</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2521,7 +2545,9 @@
       <c r="M10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="45">
+        <v>45974</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2575,7 +2601,9 @@
       <c r="M11" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="45">
+        <v>45974</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2629,7 +2657,9 @@
       <c r="M12" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="45">
+        <v>45974</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2683,7 +2713,9 @@
       <c r="M13" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="45">
+        <v>45974</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2737,7 +2769,9 @@
       <c r="M14" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="45">
+        <v>45974</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2791,7 +2825,9 @@
       <c r="M15" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="45">
+        <v>45974</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2845,7 +2881,9 @@
       <c r="M16" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="45">
+        <v>45974</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2899,7 +2937,9 @@
       <c r="M17" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="45">
+        <v>45974</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2953,7 +2993,9 @@
       <c r="M18" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="45">
+        <v>45974</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -3007,7 +3049,9 @@
       <c r="M19" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="45">
+        <v>45974</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -3061,7 +3105,9 @@
       <c r="M20" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="45">
+        <v>45974</v>
+      </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -3115,7 +3161,9 @@
       <c r="M21" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="45">
+        <v>45974</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -3169,7 +3217,9 @@
       <c r="M22" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="45">
+        <v>45974</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -3223,7 +3273,9 @@
       <c r="M23" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="45">
+        <v>45974</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -3277,7 +3329,9 @@
       <c r="M24" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="45">
+        <v>45974</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -3331,7 +3385,9 @@
       <c r="M25" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="45">
+        <v>45974</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -3385,7 +3441,9 @@
       <c r="M26" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="45">
+        <v>45974</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -3439,7 +3497,9 @@
       <c r="M27" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="45">
+        <v>45974</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -3493,7 +3553,9 @@
       <c r="M28" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="45">
+        <v>45974</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -3545,7 +3607,9 @@
       <c r="M29" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="45">
+        <v>45974</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -3599,7 +3663,9 @@
       <c r="M30" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="45">
+        <v>45974</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -3653,7 +3719,9 @@
       <c r="M31" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="45">
+        <v>45974</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -3707,7 +3775,9 @@
       <c r="M32" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="45">
+        <v>45974</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -3761,7 +3831,9 @@
       <c r="M33" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="45">
+        <v>45974</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -3815,7 +3887,9 @@
       <c r="M34" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="45">
+        <v>45974</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -3869,7 +3943,9 @@
       <c r="M35" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="45">
+        <v>45974</v>
+      </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -3923,7 +3999,9 @@
       <c r="M36" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="45">
+        <v>45974</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -3977,7 +4055,9 @@
       <c r="M37" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="N37" s="45">
+        <v>45974</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -4031,7 +4111,9 @@
       <c r="M38" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="45">
+        <v>45974</v>
+      </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -4085,7 +4167,9 @@
       <c r="M39" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="N39" s="1"/>
+      <c r="N39" s="45">
+        <v>45974</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -4139,7 +4223,9 @@
       <c r="M40" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="N40" s="1"/>
+      <c r="N40" s="45">
+        <v>45974</v>
+      </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -4193,7 +4279,9 @@
       <c r="M41" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="N41" s="45">
+        <v>45974</v>
+      </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -4247,7 +4335,9 @@
       <c r="M42" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="N42" s="45">
+        <v>45974</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>

--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhbertram/Documents/GitHub/TrioSphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A280261-3C2C-B04F-962A-54FF60BC5430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1924C397-B606-7A44-9428-9C3095F2247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="36000" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-20980" windowWidth="19200" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,20 +117,6 @@
   </si>
   <si>
     <t>CDC; NNDSS Weekly Data; MMWR; Disease; Health; United States; List all 50 states; Public Health; Human Health; Community Health; Morbidity; Mortality; Reportable Disease; Notifiable Disease; NNDSS; notifiable diseases; surveillance; provisional data; finalized data; weekly reports; annual summaries; case counts; incidence rates; COVID-19; Rabies; Measles; Influenza; Foodborne outbreaks; Vectorborne diseases; Sexually transmitted infections; Tuberculosis; Hepatitis; Novel influenza; Anthrax; Rubella; Viral hemorrhagic fevers; Campylobacteriosis; Salmonellosis; Meningococcal disease; Pertussis; Varicella; Chlamydia; Gonorrhea; Syphilis; West Nile virus; Zika virus; CDC WONDER; epidemiology; WONDER; Infectious Disease Surveillance; Disease Tracking; Epidemiologic Trends; Syndromic Surveillance; Outbreak Investigation; Health Disparities; Population Surveillance; National Health Statistics; Public Health Reporting; Epidemiological Data; Disease Burden; Health Metrics; Disease Notifications; Notifiable Condition; Public Health Informatics; Health Monitoring; Data Visualization; Disease Incidence Mapping; Weekly Epidemiological Report; Time Series Data; Weekly Morbidity Statistics; Longitudinal Health Data; Temporal Trends; Yearly Comparison; Multi-Year Data; Historic Trends; Time-Based Analysis; U.S. Territories; State-Level Surveillance; National Level Data; Regional Health Trends; County-Level Data; Urban vs. Rural Health; Geographic Disease Distribution; Emerging Infectious Diseases; Race; Ethnicity; LGBTQ+; Disability; Respiratory Infections; Vaccine-Preventable Diseases; Zoonotic Diseases; Antimicrobial Resistance; Bacterial Infections; Viral Infections; Parasitic Infections; Healthcare-Associated Infections (HAIs); Public Health Datasets; Structured Health Data; Aggregated Case Data; De-identified Data; Data Dashboards; Open Public Health Data; Government Health Data; Real-Time Data; HHS; NIH; ASPR; BioSense; PHIN (Public Health Information Network); ESSENCE (syndromic surveillance); State Health Departments; Local Epidemiology Offices; Health Data Collaboratives; Historic; Current; Present; 1997 - 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The National Notifiable Diseases Surveillance System (NNDSS) collects, analyzes, and shares data on nationally notifiable diseases to monitor and protect public health in the United States.
-####Host Organization
-- Centers for Disease Control and Prevention
-#### Data Format
-- Data is available in a variety of formats. Some datasets may be available in PDF, Plain Text, CSV, JSON, XLSX, and XML
-#### Database Time Range
-- 1997 - 2025
-#### Access Type
-- Public
-#### Citation Information
-- Follow the instructions on the [Citations for National Center for Health Statistics](https://www.cdc.gov/nchs/products/citations.htm)
-- Centers for Disease Control and Prevention (CDC). “Browse NNDSS Data.” *CDC Data Portal*, July 2025, &lt;https://data.cdc.gov/browse?category=NNDSS&amp;sortBy=last_modified&amp;pageSize=20&amp;page=1&gt;. </t>
   </si>
   <si>
     <t>CDC Data</t>
@@ -1427,6 +1413,20 @@
   <si>
     <t>dateAdded</t>
   </si>
+  <si>
+    <t xml:space="preserve">The NaNaNational Notifiable Diseases Surveillance System (NNDSS) collects, analyzes, and shares data on nationally notifiable diseases to monitor and protect public health in the United States.
+#### Host Organization
+- Centers for Disease Control and Prevention
+#### Data Format
+- Data is available in a variety of formats. Some datasets may be available in PDF, Plain Text, CSV, JSON, XLSX, and XML
+#### Database Time Range
+- 1997 - 2025
+#### Access Type
+- Public
+#### Citation Information
+- Follow the instructions on the [Citations for National Center for Health Statistics](https://www.cdc.gov/nchs/products/citations.htm)
+- Centers for Disease Control and Prevention (CDC). “Browse NNDSS Data.” *CDC Data Portal*, July 2025, &lt;https://data.cdc.gov/browse?category=NNDSS&amp;sortBy=last_modified&amp;pageSize=20&amp;page=1&gt;. </t>
+  </si>
 </sst>
 </file>
 
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N42"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2040,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2071,7 +2071,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         <v>2025</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>18</v>
@@ -2121,7 +2121,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>21</v>
@@ -2143,13 +2143,13 @@
         <v>2025</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="N3" s="45">
         <v>45974</v>
@@ -2174,13 +2174,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>22</v>
@@ -2192,7 +2192,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="12">
         <v>1950</v>
@@ -2201,13 +2201,13 @@
         <v>2025</v>
       </c>
       <c r="K4" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="N4" s="45">
         <v>45974</v>
@@ -2232,13 +2232,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>22</v>
@@ -2247,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22">
@@ -2257,13 +2257,13 @@
         <v>2025</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>38</v>
       </c>
       <c r="N5" s="45">
         <v>45974</v>
@@ -2288,16 +2288,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>16</v>
@@ -2313,13 +2313,13 @@
         <v>2025</v>
       </c>
       <c r="K6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="M6" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="N6" s="45">
         <v>45974</v>
@@ -2344,22 +2344,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22">
@@ -2369,13 +2369,13 @@
         <v>2025</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="25" t="s">
         <v>49</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>50</v>
       </c>
       <c r="N7" s="45">
         <v>45974</v>
@@ -2400,13 +2400,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="27" t="s">
         <v>52</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>53</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>22</v>
@@ -2415,7 +2415,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12">
@@ -2425,13 +2425,13 @@
         <v>2024</v>
       </c>
       <c r="K8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="M8" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="N8" s="45">
         <v>45974</v>
@@ -2456,13 +2456,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>22</v>
@@ -2471,7 +2471,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22">
@@ -2481,13 +2481,13 @@
         <v>2023</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="N9" s="45">
         <v>45974</v>
@@ -2512,16 +2512,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>16</v>
@@ -2537,13 +2537,13 @@
         <v>2005</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="N10" s="45">
         <v>45974</v>
@@ -2568,16 +2568,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>69</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>70</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>16</v>
@@ -2593,13 +2593,13 @@
         <v>2025</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L11" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="N11" s="45">
         <v>45974</v>
@@ -2624,16 +2624,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>75</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>16</v>
@@ -2649,13 +2649,13 @@
         <v>2025</v>
       </c>
       <c r="K12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="M12" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="N12" s="45">
         <v>45974</v>
@@ -2680,16 +2680,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>81</v>
-      </c>
       <c r="E13" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>16</v>
@@ -2705,13 +2705,13 @@
         <v>2025</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>83</v>
       </c>
       <c r="N13" s="45">
         <v>45974</v>
@@ -2736,16 +2736,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="E14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>16</v>
@@ -2761,13 +2761,13 @@
         <v>2025</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="N14" s="45">
         <v>45974</v>
@@ -2792,16 +2792,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>91</v>
-      </c>
       <c r="E15" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>16</v>
@@ -2817,13 +2817,13 @@
         <v>2025</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L15" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>93</v>
       </c>
       <c r="N15" s="45">
         <v>45974</v>
@@ -2848,19 +2848,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>17</v>
@@ -2873,13 +2873,13 @@
         <v>2025</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="N16" s="45">
         <v>45974</v>
@@ -2904,16 +2904,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>102</v>
-      </c>
       <c r="E17" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>16</v>
@@ -2929,13 +2929,13 @@
         <v>2025</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L17" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>104</v>
       </c>
       <c r="N17" s="45">
         <v>45974</v>
@@ -2960,16 +2960,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>107</v>
-      </c>
       <c r="E18" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>16</v>
@@ -2985,13 +2985,13 @@
         <v>2025</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="N18" s="45">
         <v>45974</v>
@@ -3016,16 +3016,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="E19" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>16</v>
@@ -3041,13 +3041,13 @@
         <v>2025</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N19" s="45">
         <v>45974</v>
@@ -3072,19 +3072,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>115</v>
-      </c>
       <c r="E20" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>23</v>
@@ -3097,13 +3097,13 @@
         <v>2023</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L20" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>117</v>
       </c>
       <c r="N20" s="45">
         <v>45974</v>
@@ -3128,16 +3128,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>120</v>
-      </c>
       <c r="E21" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>16</v>
@@ -3153,13 +3153,13 @@
         <v>2025</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="N21" s="45">
         <v>45974</v>
@@ -3184,16 +3184,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>125</v>
-      </c>
       <c r="E22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>16</v>
@@ -3209,13 +3209,13 @@
         <v>2025</v>
       </c>
       <c r="K22" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="M22" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="N22" s="45">
         <v>45974</v>
@@ -3240,19 +3240,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="E23" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>23</v>
@@ -3265,13 +3265,13 @@
         <v>2025</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L23" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="25" t="s">
         <v>132</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>133</v>
       </c>
       <c r="N23" s="45">
         <v>45974</v>
@@ -3296,16 +3296,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>136</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>16</v>
@@ -3321,13 +3321,13 @@
         <v>2025</v>
       </c>
       <c r="K24" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="M24" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="N24" s="45">
         <v>45974</v>
@@ -3352,19 +3352,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>142</v>
-      </c>
       <c r="E25" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>17</v>
@@ -3377,13 +3377,13 @@
         <v>2025</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L25" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="N25" s="45">
         <v>45974</v>
@@ -3408,16 +3408,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="E26" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>16</v>
@@ -3433,13 +3433,13 @@
         <v>2025</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L26" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M26" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="N26" s="45">
         <v>45974</v>
@@ -3464,16 +3464,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="E27" s="20" t="s">
         <v>153</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>154</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>16</v>
@@ -3489,13 +3489,13 @@
         <v>2025</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L27" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="M27" s="25" t="s">
         <v>155</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>156</v>
       </c>
       <c r="N27" s="45">
         <v>45974</v>
@@ -3520,16 +3520,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>159</v>
-      </c>
       <c r="E28" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>16</v>
@@ -3545,13 +3545,13 @@
         <v>2025</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L28" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M28" s="16" t="s">
         <v>160</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>161</v>
       </c>
       <c r="N28" s="45">
         <v>45974</v>
@@ -3576,16 +3576,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D29" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>164</v>
-      </c>
       <c r="E29" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>16</v>
@@ -3599,13 +3599,13 @@
         <v>2025</v>
       </c>
       <c r="K29" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="M29" s="25" t="s">
         <v>166</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>167</v>
       </c>
       <c r="N29" s="45">
         <v>45974</v>
@@ -3630,22 +3630,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="D30" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>170</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13">
@@ -3655,13 +3655,13 @@
         <v>2025</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L30" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M30" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="N30" s="45">
         <v>45974</v>
@@ -3686,13 +3686,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C31" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>174</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>22</v>
@@ -3711,13 +3711,13 @@
         <v>2025</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L31" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="M31" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="M31" s="25" t="s">
-        <v>176</v>
       </c>
       <c r="N31" s="45">
         <v>45974</v>
@@ -3742,13 +3742,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="27" t="s">
         <v>178</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>179</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>22</v>
@@ -3767,13 +3767,13 @@
         <v>2025</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L32" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="M32" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="N32" s="45">
         <v>45974</v>
@@ -3798,13 +3798,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="D33" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>22</v>
@@ -3823,13 +3823,13 @@
         <v>2025</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L33" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M33" s="25" t="s">
         <v>185</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>186</v>
       </c>
       <c r="N33" s="45">
         <v>45974</v>
@@ -3854,13 +3854,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="27" t="s">
         <v>188</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>189</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>22</v>
@@ -3879,13 +3879,13 @@
         <v>2025</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L34" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="M34" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="N34" s="45">
         <v>45974</v>
@@ -3910,13 +3910,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="D35" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>22</v>
@@ -3935,13 +3935,13 @@
         <v>2025</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L35" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M35" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>196</v>
       </c>
       <c r="N35" s="45">
         <v>45974</v>
@@ -3966,13 +3966,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>22</v>
@@ -3991,13 +3991,13 @@
         <v>2025</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L36" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M36" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>201</v>
       </c>
       <c r="N36" s="45">
         <v>45974</v>
@@ -4022,16 +4022,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="D37" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>204</v>
-      </c>
       <c r="E37" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>16</v>
@@ -4047,13 +4047,13 @@
         <v>2025</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L37" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M37" s="25" t="s">
         <v>205</v>
-      </c>
-      <c r="M37" s="25" t="s">
-        <v>206</v>
       </c>
       <c r="N37" s="45">
         <v>45974</v>
@@ -4078,22 +4078,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>209</v>
-      </c>
       <c r="E38" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13">
@@ -4103,13 +4103,13 @@
         <v>2025</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L38" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="M38" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>211</v>
       </c>
       <c r="N38" s="45">
         <v>45974</v>
@@ -4134,22 +4134,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="D39" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>214</v>
-      </c>
       <c r="E39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="34">
@@ -4159,13 +4159,13 @@
         <v>2025</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L39" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M39" s="25" t="s">
         <v>215</v>
-      </c>
-      <c r="M39" s="25" t="s">
-        <v>216</v>
       </c>
       <c r="N39" s="45">
         <v>45974</v>
@@ -4190,13 +4190,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>219</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>22</v>
@@ -4215,13 +4215,13 @@
         <v>2025</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L40" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="M40" s="16" t="s">
         <v>220</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>221</v>
       </c>
       <c r="N40" s="45">
         <v>45974</v>
@@ -4246,16 +4246,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>224</v>
-      </c>
       <c r="E41" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>16</v>
@@ -4271,13 +4271,13 @@
         <v>2025</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M41" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N41" s="45">
         <v>45974</v>
@@ -4302,13 +4302,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="D42" s="38" t="s">
         <v>227</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>228</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>22</v>
@@ -4327,13 +4327,13 @@
         <v>2025</v>
       </c>
       <c r="K42" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L42" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="M42" s="44" t="s">
         <v>229</v>
-      </c>
-      <c r="M42" s="44" t="s">
-        <v>230</v>
       </c>
       <c r="N42" s="45">
         <v>45974</v>

--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhbertram/Documents/GitHub/TrioSphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1924C397-B606-7A44-9428-9C3095F2247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECB68EE-F448-D74D-95A7-CEC78FD5E124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-20980" windowWidth="19200" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1978,7 +1978,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
